--- a/test/org/hy/common/report/junit/pageTitle/JU_PageTitle.xlsx
+++ b/test/org/hy/common/report/junit/pageTitle/JU_PageTitle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>人员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:staffs.$size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:staffs[].staffNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页码：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:PageNo__</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +103,14 @@
   </si>
   <si>
     <t>分页标题演示(分页页脚)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页眉页码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页脚页码：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,8 +170,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,13 +204,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,61 +395,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,6 +460,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CC66"/>
+      <color rgb="FF339966"/>
+      <color rgb="FF33CC33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -773,11 +800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -789,35 +816,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -848,97 +875,75 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="A6" s="14" t="s">
         <v>19</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B8:C9"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/org/hy/common/report/junit/pageTitle/JU_PageTitle.xlsx
+++ b/test/org/hy/common/report/junit/pageTitle/JU_PageTitle.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="分页标题演示" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -221,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -245,43 +245,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -367,6 +330,24 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -375,7 +356,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,28 +373,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,31 +400,55 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,11 +799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -816,134 +815,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="7" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F5" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="20" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
